--- a/migracion/reporte_migracion.xlsx
+++ b/migracion/reporte_migracion.xlsx
@@ -397,9 +397,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G92"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
@@ -655,9 +655,1850 @@
         <v/>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>ALSACIA RESERVADO 3</v>
+      </c>
+      <c r="B12" t="str">
+        <v>900506434</v>
+      </c>
+      <c r="C12">
+        <v>50</v>
+      </c>
+      <c r="D12">
+        <v>13</v>
+      </c>
+      <c r="E12">
+        <v>668</v>
+      </c>
+      <c r="F12" t="str">
+        <v>OK</v>
+      </c>
+      <c r="G12" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>ALTAVISTA</v>
+      </c>
+      <c r="B13" t="str">
+        <v>900654612</v>
+      </c>
+      <c r="C13">
+        <v>69</v>
+      </c>
+      <c r="D13">
+        <v>67</v>
+      </c>
+      <c r="E13">
+        <v>853</v>
+      </c>
+      <c r="F13" t="str">
+        <v>OK</v>
+      </c>
+      <c r="G13" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>ALTO HORIZONTE</v>
+      </c>
+      <c r="B14" t="str">
+        <v>830032420</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>15</v>
+      </c>
+      <c r="F14" t="str">
+        <v>OK</v>
+      </c>
+      <c r="G14" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>AMERICAS 68 MZ 52</v>
+      </c>
+      <c r="B15" t="str">
+        <v>900715424</v>
+      </c>
+      <c r="C15">
+        <v>95</v>
+      </c>
+      <c r="D15">
+        <v>74</v>
+      </c>
+      <c r="E15">
+        <v>820</v>
+      </c>
+      <c r="F15" t="str">
+        <v>OK</v>
+      </c>
+      <c r="G15" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>AMERICAS MANZANA H</v>
+      </c>
+      <c r="B16" t="str">
+        <v>830006055</v>
+      </c>
+      <c r="C16">
+        <v>11</v>
+      </c>
+      <c r="D16">
+        <v>11</v>
+      </c>
+      <c r="E16">
+        <v>95</v>
+      </c>
+      <c r="F16" t="str">
+        <v>OK</v>
+      </c>
+      <c r="G16" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>APOSENTOS</v>
+      </c>
+      <c r="B17" t="str">
+        <v>900947384</v>
+      </c>
+      <c r="C17">
+        <v>25</v>
+      </c>
+      <c r="D17">
+        <v>18</v>
+      </c>
+      <c r="E17">
+        <v>215</v>
+      </c>
+      <c r="F17" t="str">
+        <v>OK</v>
+      </c>
+      <c r="G17" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>ARBOLEDA DEL JORDAN</v>
+      </c>
+      <c r="B18" t="str">
+        <v>830125131</v>
+      </c>
+      <c r="C18">
+        <v>11</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>93</v>
+      </c>
+      <c r="F18" t="str">
+        <v>OK</v>
+      </c>
+      <c r="G18" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>ARBOLEDA SAN GABRIEL I Y II</v>
+      </c>
+      <c r="B19" t="str">
+        <v>830121765</v>
+      </c>
+      <c r="C19">
+        <v>33</v>
+      </c>
+      <c r="D19">
+        <v>18</v>
+      </c>
+      <c r="E19">
+        <v>449</v>
+      </c>
+      <c r="F19" t="str">
+        <v>OK</v>
+      </c>
+      <c r="G19" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>ARRAYANES DE SAUZALITO</v>
+      </c>
+      <c r="B20" t="str">
+        <v>800142993</v>
+      </c>
+      <c r="C20">
+        <v>27</v>
+      </c>
+      <c r="D20">
+        <v>16</v>
+      </c>
+      <c r="E20">
+        <v>333</v>
+      </c>
+      <c r="F20" t="str">
+        <v>OK</v>
+      </c>
+      <c r="G20" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>ARRAYANES DE SUBA</v>
+      </c>
+      <c r="B21" t="str">
+        <v>830074497</v>
+      </c>
+      <c r="C21">
+        <v>16</v>
+      </c>
+      <c r="D21">
+        <v>3</v>
+      </c>
+      <c r="E21">
+        <v>129</v>
+      </c>
+      <c r="F21" t="str">
+        <v>OK</v>
+      </c>
+      <c r="G21" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>ATALANTA</v>
+      </c>
+      <c r="B22" t="str">
+        <v>900122253</v>
+      </c>
+      <c r="C22">
+        <v>33</v>
+      </c>
+      <c r="D22">
+        <v>36</v>
+      </c>
+      <c r="E22">
+        <v>389</v>
+      </c>
+      <c r="F22" t="str">
+        <v>OK</v>
+      </c>
+      <c r="G22" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>ATHENAS</v>
+      </c>
+      <c r="B23" t="str">
+        <v>800119310</v>
+      </c>
+      <c r="C23">
+        <v>8</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>39</v>
+      </c>
+      <c r="F23" t="str">
+        <v>OK</v>
+      </c>
+      <c r="G23" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>BALCONES DE SEGOVIA</v>
+      </c>
+      <c r="B24" t="str">
+        <v>830057747</v>
+      </c>
+      <c r="C24">
+        <v>25</v>
+      </c>
+      <c r="D24">
+        <v>11</v>
+      </c>
+      <c r="E24">
+        <v>132</v>
+      </c>
+      <c r="F24" t="str">
+        <v>OK</v>
+      </c>
+      <c r="G24" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>BARICHARA</v>
+      </c>
+      <c r="B25" t="str">
+        <v>900658412</v>
+      </c>
+      <c r="C25">
+        <v>143</v>
+      </c>
+      <c r="D25">
+        <v>156</v>
+      </c>
+      <c r="E25">
+        <v>2820</v>
+      </c>
+      <c r="F25" t="str">
+        <v>OK</v>
+      </c>
+      <c r="G25" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>BILBAO REAL</v>
+      </c>
+      <c r="B26" t="str">
+        <v>900281120</v>
+      </c>
+      <c r="C26">
+        <v>21</v>
+      </c>
+      <c r="D26">
+        <v>19</v>
+      </c>
+      <c r="E26">
+        <v>105</v>
+      </c>
+      <c r="F26" t="str">
+        <v>OK</v>
+      </c>
+      <c r="G26" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>BOCHICA VI</v>
+      </c>
+      <c r="B27" t="str">
+        <v>830096405</v>
+      </c>
+      <c r="C27">
+        <v>13</v>
+      </c>
+      <c r="D27">
+        <v>7</v>
+      </c>
+      <c r="E27">
+        <v>163</v>
+      </c>
+      <c r="F27" t="str">
+        <v>OK</v>
+      </c>
+      <c r="G27" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>BONAVISTA</v>
+      </c>
+      <c r="B28" t="str">
+        <v>900539381</v>
+      </c>
+      <c r="C28">
+        <v>75</v>
+      </c>
+      <c r="D28">
+        <v>45</v>
+      </c>
+      <c r="E28">
+        <v>1450</v>
+      </c>
+      <c r="F28" t="str">
+        <v>OK</v>
+      </c>
+      <c r="G28" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>BOSQUE DE LAS AMERICAS</v>
+      </c>
+      <c r="B29" t="str">
+        <v>900266721</v>
+      </c>
+      <c r="C29">
+        <v>26</v>
+      </c>
+      <c r="D29">
+        <v>28</v>
+      </c>
+      <c r="E29">
+        <v>341</v>
+      </c>
+      <c r="F29" t="str">
+        <v>OK</v>
+      </c>
+      <c r="G29" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>BOSQUE VERDE</v>
+      </c>
+      <c r="B30" t="str">
+        <v>900366498</v>
+      </c>
+      <c r="C30">
+        <v>13</v>
+      </c>
+      <c r="D30">
+        <v>8</v>
+      </c>
+      <c r="E30">
+        <v>58</v>
+      </c>
+      <c r="F30" t="str">
+        <v>OK</v>
+      </c>
+      <c r="G30" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>BOSQUES DE KENNEDY</v>
+      </c>
+      <c r="B31" t="str">
+        <v>860040335</v>
+      </c>
+      <c r="C31">
+        <v>114</v>
+      </c>
+      <c r="D31">
+        <v>100</v>
+      </c>
+      <c r="E31">
+        <v>918</v>
+      </c>
+      <c r="F31" t="str">
+        <v>OK</v>
+      </c>
+      <c r="G31" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>BRISAS DE CASTILLA</v>
+      </c>
+      <c r="B32" t="str">
+        <v>900786792</v>
+      </c>
+      <c r="C32">
+        <v>14</v>
+      </c>
+      <c r="D32">
+        <v>10</v>
+      </c>
+      <c r="E32">
+        <v>88</v>
+      </c>
+      <c r="F32" t="str">
+        <v>OK</v>
+      </c>
+      <c r="G32" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>CALLEJON DE SANTA BARBARA</v>
+      </c>
+      <c r="B33" t="str">
+        <v>830064945</v>
+      </c>
+      <c r="C33">
+        <v>13</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>79</v>
+      </c>
+      <c r="F33" t="str">
+        <v>OK</v>
+      </c>
+      <c r="G33" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>CAMINO DE LOS ANDES</v>
+      </c>
+      <c r="B34" t="str">
+        <v>901507077</v>
+      </c>
+      <c r="C34">
+        <v>33</v>
+      </c>
+      <c r="D34">
+        <v>16</v>
+      </c>
+      <c r="E34">
+        <v>242</v>
+      </c>
+      <c r="F34" t="str">
+        <v>OK</v>
+      </c>
+      <c r="G34" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>CAMINOS 1 Y 2</v>
+      </c>
+      <c r="B35" t="str">
+        <v>901132823</v>
+      </c>
+      <c r="C35">
+        <v>89</v>
+      </c>
+      <c r="D35">
+        <v>40</v>
+      </c>
+      <c r="E35">
+        <v>731</v>
+      </c>
+      <c r="F35" t="str">
+        <v>OK</v>
+      </c>
+      <c r="G35" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>CANELO</v>
+      </c>
+      <c r="B36" t="str">
+        <v>901213216</v>
+      </c>
+      <c r="C36">
+        <v>47</v>
+      </c>
+      <c r="D36">
+        <v>11</v>
+      </c>
+      <c r="E36">
+        <v>523</v>
+      </c>
+      <c r="F36" t="str">
+        <v>OK</v>
+      </c>
+      <c r="G36" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>CARABELAS</v>
+      </c>
+      <c r="B37" t="str">
+        <v>800193176</v>
+      </c>
+      <c r="C37">
+        <v>2</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37">
+        <v>26</v>
+      </c>
+      <c r="F37" t="str">
+        <v>OK</v>
+      </c>
+      <c r="G37" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>CARIMAGUA</v>
+      </c>
+      <c r="B38" t="str">
+        <v>830075332</v>
+      </c>
+      <c r="C38">
+        <v>43</v>
+      </c>
+      <c r="D38">
+        <v>50</v>
+      </c>
+      <c r="E38">
+        <v>931</v>
+      </c>
+      <c r="F38" t="str">
+        <v>OK</v>
+      </c>
+      <c r="G38" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>CARIMAGUA 127</v>
+      </c>
+      <c r="B39" t="str">
+        <v>800206093</v>
+      </c>
+      <c r="C39">
+        <v>7</v>
+      </c>
+      <c r="D39">
+        <v>7</v>
+      </c>
+      <c r="E39">
+        <v>114</v>
+      </c>
+      <c r="F39" t="str">
+        <v>OK</v>
+      </c>
+      <c r="G39" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>CASA GRANDE</v>
+      </c>
+      <c r="B40" t="str">
+        <v>830135812</v>
+      </c>
+      <c r="C40">
+        <v>10</v>
+      </c>
+      <c r="D40">
+        <v>6</v>
+      </c>
+      <c r="E40">
+        <v>37</v>
+      </c>
+      <c r="F40" t="str">
+        <v>OK</v>
+      </c>
+      <c r="G40" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>CASA LINDA 8</v>
+      </c>
+      <c r="B41" t="str">
+        <v>832005276</v>
+      </c>
+      <c r="C41">
+        <v>28</v>
+      </c>
+      <c r="D41">
+        <v>21</v>
+      </c>
+      <c r="E41">
+        <v>227</v>
+      </c>
+      <c r="F41" t="str">
+        <v>OK</v>
+      </c>
+      <c r="G41" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>CASABLANCA 30 - 31</v>
+      </c>
+      <c r="B43" t="str">
+        <v>800234376</v>
+      </c>
+      <c r="C43">
+        <v>16</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>54</v>
+      </c>
+      <c r="F43" t="str">
+        <v>OK</v>
+      </c>
+      <c r="G43" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>CASABLANCA 32</v>
+      </c>
+      <c r="B44" t="str">
+        <v>860404520</v>
+      </c>
+      <c r="C44">
+        <v>22</v>
+      </c>
+      <c r="D44">
+        <v>14</v>
+      </c>
+      <c r="E44">
+        <v>309</v>
+      </c>
+      <c r="F44" t="str">
+        <v>OK</v>
+      </c>
+      <c r="G44" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>CASAS DE SANTA FE</v>
+      </c>
+      <c r="B45" t="str">
+        <v>830113468</v>
+      </c>
+      <c r="C45">
+        <v>36</v>
+      </c>
+      <c r="D45">
+        <v>47</v>
+      </c>
+      <c r="E45">
+        <v>373</v>
+      </c>
+      <c r="F45" t="str">
+        <v>OK</v>
+      </c>
+      <c r="G45" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>CASTILLA DE ORO</v>
+      </c>
+      <c r="B46" t="str">
+        <v>800177027</v>
+      </c>
+      <c r="C46">
+        <v>8</v>
+      </c>
+      <c r="D46">
+        <v>5</v>
+      </c>
+      <c r="E46">
+        <v>94</v>
+      </c>
+      <c r="F46" t="str">
+        <v>OK</v>
+      </c>
+      <c r="G46" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>CASTILLA OCCIDENTAL</v>
+      </c>
+      <c r="B47" t="str">
+        <v>830119707</v>
+      </c>
+      <c r="C47">
+        <v>49</v>
+      </c>
+      <c r="D47">
+        <v>14</v>
+      </c>
+      <c r="E47">
+        <v>479</v>
+      </c>
+      <c r="F47" t="str">
+        <v>OK</v>
+      </c>
+      <c r="G47" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>CASTILLA REAL</v>
+      </c>
+      <c r="B48" t="str">
+        <v>800237079</v>
+      </c>
+      <c r="C48">
+        <v>12</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>74</v>
+      </c>
+      <c r="F48" t="str">
+        <v>OK</v>
+      </c>
+      <c r="G48" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>CELTA CAMPESTRE</v>
+      </c>
+      <c r="B49" t="str">
+        <v>900473941</v>
+      </c>
+      <c r="C49">
+        <v>5</v>
+      </c>
+      <c r="D49">
+        <v>4</v>
+      </c>
+      <c r="E49">
+        <v>89</v>
+      </c>
+      <c r="F49" t="str">
+        <v>OK</v>
+      </c>
+      <c r="G49" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>CENTRO COMERCIAL CIUDAD MONTES</v>
+      </c>
+      <c r="B50" t="str">
+        <v>860450841</v>
+      </c>
+      <c r="C50">
+        <v>8</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="E50">
+        <v>160</v>
+      </c>
+      <c r="F50" t="str">
+        <v>OK</v>
+      </c>
+      <c r="G50" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>CIUDAD TINTAL MZ 5 LOTE 3</v>
+      </c>
+      <c r="B51" t="str">
+        <v>900060600</v>
+      </c>
+      <c r="C51">
+        <v>45</v>
+      </c>
+      <c r="D51">
+        <v>47</v>
+      </c>
+      <c r="E51">
+        <v>821</v>
+      </c>
+      <c r="F51" t="str">
+        <v>OK</v>
+      </c>
+      <c r="G51" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>COLINA CLUB</v>
+      </c>
+      <c r="B52" t="str">
+        <v>900404487</v>
+      </c>
+      <c r="C52">
+        <v>27</v>
+      </c>
+      <c r="D52">
+        <v>21</v>
+      </c>
+      <c r="E52">
+        <v>437</v>
+      </c>
+      <c r="F52" t="str">
+        <v>OK</v>
+      </c>
+      <c r="G52" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>COMPOSTELA</v>
+      </c>
+      <c r="B53" t="str">
+        <v>900084381</v>
+      </c>
+      <c r="C53">
+        <v>11</v>
+      </c>
+      <c r="D53">
+        <v>8</v>
+      </c>
+      <c r="E53">
+        <v>204</v>
+      </c>
+      <c r="F53" t="str">
+        <v>OK</v>
+      </c>
+      <c r="G53" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v>CONDOMINIO PLAZA DEL SOL</v>
+      </c>
+      <c r="B54" t="str">
+        <v>830131333</v>
+      </c>
+      <c r="C54">
+        <v>6</v>
+      </c>
+      <c r="D54">
+        <v>8</v>
+      </c>
+      <c r="E54">
+        <v>45</v>
+      </c>
+      <c r="F54" t="str">
+        <v>OK</v>
+      </c>
+      <c r="G54" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v>CONDOMINIOS III</v>
+      </c>
+      <c r="B55" t="str">
+        <v>900182882</v>
+      </c>
+      <c r="C55">
+        <v>70</v>
+      </c>
+      <c r="D55">
+        <v>154</v>
+      </c>
+      <c r="E55">
+        <v>1059</v>
+      </c>
+      <c r="F55" t="str">
+        <v>OK</v>
+      </c>
+      <c r="G55" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>CONJUNTO ALCAPARRO</v>
+      </c>
+      <c r="B56" t="str">
+        <v>901554013</v>
+      </c>
+      <c r="C56">
+        <v>39</v>
+      </c>
+      <c r="D56">
+        <v>94</v>
+      </c>
+      <c r="E56">
+        <v>382</v>
+      </c>
+      <c r="F56" t="str">
+        <v>OK</v>
+      </c>
+      <c r="G56" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v>CUMBRES DEL SALITRE 3</v>
+      </c>
+      <c r="B57" t="str">
+        <v>830076458</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
+      <c r="D57">
+        <v>1</v>
+      </c>
+      <c r="E57">
+        <v>15</v>
+      </c>
+      <c r="F57" t="str">
+        <v>OK</v>
+      </c>
+      <c r="G57" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v>DALIA</v>
+      </c>
+      <c r="B58" t="str">
+        <v>900759684</v>
+      </c>
+      <c r="C58">
+        <v>20</v>
+      </c>
+      <c r="D58">
+        <v>41</v>
+      </c>
+      <c r="E58">
+        <v>264</v>
+      </c>
+      <c r="F58" t="str">
+        <v>OK</v>
+      </c>
+      <c r="G58" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v>EDIFICIO ELEMENT</v>
+      </c>
+      <c r="B59" t="str">
+        <v>901747169</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59" t="str">
+        <v>NO ESTA EN NOMOS</v>
+      </c>
+      <c r="G59" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>EDIFICIO OMHA</v>
+      </c>
+      <c r="B60" t="str">
+        <v>900121375</v>
+      </c>
+      <c r="C60">
+        <v>1</v>
+      </c>
+      <c r="D60">
+        <v>1</v>
+      </c>
+      <c r="E60">
+        <v>15</v>
+      </c>
+      <c r="F60" t="str">
+        <v>OK</v>
+      </c>
+      <c r="G60" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v>EDIFICIO PRADELLO</v>
+      </c>
+      <c r="B61" t="str">
+        <v>900328260</v>
+      </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
+      <c r="D61">
+        <v>1</v>
+      </c>
+      <c r="E61">
+        <v>33</v>
+      </c>
+      <c r="F61" t="str">
+        <v>OK</v>
+      </c>
+      <c r="G61" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="str">
+        <v>EDIFICIO SOTILEZA</v>
+      </c>
+      <c r="B62" t="str">
+        <v>900232631</v>
+      </c>
+      <c r="C62">
+        <v>0</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62" t="str">
+        <v>NO ESTA EN NOMOS</v>
+      </c>
+      <c r="G62" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v>EL BOSQUE DE LA FELICIDAD</v>
+      </c>
+      <c r="B63" t="str">
+        <v>900481528</v>
+      </c>
+      <c r="C63">
+        <v>2</v>
+      </c>
+      <c r="D63">
+        <v>2</v>
+      </c>
+      <c r="E63">
+        <v>65</v>
+      </c>
+      <c r="F63" t="str">
+        <v>OK</v>
+      </c>
+      <c r="G63" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v>EL LAGO</v>
+      </c>
+      <c r="B64" t="str">
+        <v>901562955</v>
+      </c>
+      <c r="C64">
+        <v>15</v>
+      </c>
+      <c r="D64">
+        <v>4</v>
+      </c>
+      <c r="E64">
+        <v>128</v>
+      </c>
+      <c r="F64" t="str">
+        <v>OK</v>
+      </c>
+      <c r="G64" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="str">
+        <v>EL REDIL</v>
+      </c>
+      <c r="B65" t="str">
+        <v>900237253</v>
+      </c>
+      <c r="C65">
+        <v>4</v>
+      </c>
+      <c r="D65">
+        <v>4</v>
+      </c>
+      <c r="E65">
+        <v>24</v>
+      </c>
+      <c r="F65" t="str">
+        <v>OK</v>
+      </c>
+      <c r="G65" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="str">
+        <v>ENTRE RIOS</v>
+      </c>
+      <c r="B66" t="str">
+        <v>860352766</v>
+      </c>
+      <c r="C66">
+        <v>1</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="E66">
+        <v>10</v>
+      </c>
+      <c r="F66" t="str">
+        <v>OK</v>
+      </c>
+      <c r="G66" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="str">
+        <v>FAVIDI</v>
+      </c>
+      <c r="B67" t="str">
+        <v>800095818</v>
+      </c>
+      <c r="C67">
+        <v>64</v>
+      </c>
+      <c r="D67">
+        <v>31</v>
+      </c>
+      <c r="E67">
+        <v>551</v>
+      </c>
+      <c r="F67" t="str">
+        <v>OK</v>
+      </c>
+      <c r="G67" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="str">
+        <v>HAYUELOS</v>
+      </c>
+      <c r="B68" t="str">
+        <v>900334680</v>
+      </c>
+      <c r="C68">
+        <v>56</v>
+      </c>
+      <c r="D68">
+        <v>8</v>
+      </c>
+      <c r="E68">
+        <v>526</v>
+      </c>
+      <c r="F68" t="str">
+        <v>OK</v>
+      </c>
+      <c r="G68" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="str">
+        <v>HORTENSIA</v>
+      </c>
+      <c r="B69" t="str">
+        <v>900715763</v>
+      </c>
+      <c r="C69">
+        <v>66</v>
+      </c>
+      <c r="D69">
+        <v>165</v>
+      </c>
+      <c r="E69">
+        <v>1203</v>
+      </c>
+      <c r="F69" t="str">
+        <v>OK</v>
+      </c>
+      <c r="G69" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="str">
+        <v>IPANEMA</v>
+      </c>
+      <c r="B70" t="str">
+        <v>900495255</v>
+      </c>
+      <c r="C70">
+        <v>30</v>
+      </c>
+      <c r="D70">
+        <v>28</v>
+      </c>
+      <c r="E70">
+        <v>750</v>
+      </c>
+      <c r="F70" t="str">
+        <v>OK</v>
+      </c>
+      <c r="G70" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="str">
+        <v>JARDINES DE CASTILLA 4</v>
+      </c>
+      <c r="B71" t="str">
+        <v>830146081</v>
+      </c>
+      <c r="C71">
+        <v>47</v>
+      </c>
+      <c r="D71">
+        <v>35</v>
+      </c>
+      <c r="E71">
+        <v>550</v>
+      </c>
+      <c r="F71" t="str">
+        <v>OK</v>
+      </c>
+      <c r="G71" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="str">
+        <v>JARDINES DE GALICIA</v>
+      </c>
+      <c r="B72" t="str">
+        <v>900367986</v>
+      </c>
+      <c r="C72">
+        <v>27</v>
+      </c>
+      <c r="D72">
+        <v>11</v>
+      </c>
+      <c r="E72">
+        <v>296</v>
+      </c>
+      <c r="F72" t="str">
+        <v>OK</v>
+      </c>
+      <c r="G72" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="str">
+        <v>JARDINES DE TIBABUYES</v>
+      </c>
+      <c r="B73" t="str">
+        <v>800250273</v>
+      </c>
+      <c r="C73">
+        <v>10</v>
+      </c>
+      <c r="D73">
+        <v>10</v>
+      </c>
+      <c r="E73">
+        <v>138</v>
+      </c>
+      <c r="F73" t="str">
+        <v>OK</v>
+      </c>
+      <c r="G73" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="str">
+        <v>JULIANA</v>
+      </c>
+      <c r="B74" t="str">
+        <v>830027772</v>
+      </c>
+      <c r="C74">
+        <v>5</v>
+      </c>
+      <c r="D74">
+        <v>1</v>
+      </c>
+      <c r="E74">
+        <v>53</v>
+      </c>
+      <c r="F74" t="str">
+        <v>OK</v>
+      </c>
+      <c r="G74" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="str">
+        <v>KASAY 1</v>
+      </c>
+      <c r="B75" t="str">
+        <v>900229811</v>
+      </c>
+      <c r="C75">
+        <v>4</v>
+      </c>
+      <c r="D75">
+        <v>4</v>
+      </c>
+      <c r="E75">
+        <v>11</v>
+      </c>
+      <c r="F75" t="str">
+        <v>OK</v>
+      </c>
+      <c r="G75" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="str">
+        <v>LA CUMBRE</v>
+      </c>
+      <c r="B76" t="str">
+        <v>900719591</v>
+      </c>
+      <c r="C76">
+        <v>20</v>
+      </c>
+      <c r="D76">
+        <v>2</v>
+      </c>
+      <c r="E76">
+        <v>243</v>
+      </c>
+      <c r="F76" t="str">
+        <v>OK</v>
+      </c>
+      <c r="G76" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="str">
+        <v>LA FORTUNA I</v>
+      </c>
+      <c r="B77" t="str">
+        <v>900748799</v>
+      </c>
+      <c r="C77">
+        <v>83</v>
+      </c>
+      <c r="D77">
+        <v>71</v>
+      </c>
+      <c r="E77">
+        <v>1605</v>
+      </c>
+      <c r="F77" t="str">
+        <v>OK</v>
+      </c>
+      <c r="G77" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="str">
+        <v>LANTANA REAL</v>
+      </c>
+      <c r="B78" t="str">
+        <v>900115005</v>
+      </c>
+      <c r="C78">
+        <v>36</v>
+      </c>
+      <c r="D78">
+        <v>1</v>
+      </c>
+      <c r="E78">
+        <v>288</v>
+      </c>
+      <c r="F78" t="str">
+        <v>OK</v>
+      </c>
+      <c r="G78" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="str">
+        <v>LAS NAVETAS 7</v>
+      </c>
+      <c r="B79" t="str">
+        <v>830079494</v>
+      </c>
+      <c r="C79">
+        <v>0</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
+      <c r="E79">
+        <v>0</v>
+      </c>
+      <c r="F79" t="str">
+        <v>NO ESTA EN NOMOS</v>
+      </c>
+      <c r="G79" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="str">
+        <v>LOS BUGANVILES</v>
+      </c>
+      <c r="B80" t="str">
+        <v>809011754</v>
+      </c>
+      <c r="C80">
+        <v>4</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+      <c r="E80">
+        <v>50</v>
+      </c>
+      <c r="F80" t="str">
+        <v>OK</v>
+      </c>
+      <c r="G80" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="str">
+        <v>LOS CAMBULOS</v>
+      </c>
+      <c r="B81" t="str">
+        <v>830002180</v>
+      </c>
+      <c r="C81">
+        <v>17</v>
+      </c>
+      <c r="D81">
+        <v>17</v>
+      </c>
+      <c r="E81">
+        <v>51</v>
+      </c>
+      <c r="F81" t="str">
+        <v>OK</v>
+      </c>
+      <c r="G81" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="str">
+        <v>LOS SAUCES</v>
+      </c>
+      <c r="B82" t="str">
+        <v>800198168</v>
+      </c>
+      <c r="C82">
+        <v>7</v>
+      </c>
+      <c r="D82">
+        <v>7</v>
+      </c>
+      <c r="E82">
+        <v>58</v>
+      </c>
+      <c r="F82" t="str">
+        <v>OK</v>
+      </c>
+      <c r="G82" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="str">
+        <v>MACONDO</v>
+      </c>
+      <c r="B83" t="str">
+        <v>900947320</v>
+      </c>
+      <c r="C83">
+        <v>0</v>
+      </c>
+      <c r="D83">
+        <v>0</v>
+      </c>
+      <c r="E83">
+        <v>0</v>
+      </c>
+      <c r="F83" t="str">
+        <v>NO ESTA EN NOMOS</v>
+      </c>
+      <c r="G83" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="str">
+        <v>MADELENA 45</v>
+      </c>
+      <c r="B84" t="str">
+        <v>900346849</v>
+      </c>
+      <c r="C84">
+        <v>5</v>
+      </c>
+      <c r="D84">
+        <v>5</v>
+      </c>
+      <c r="E84">
+        <v>68</v>
+      </c>
+      <c r="F84" t="str">
+        <v>OK</v>
+      </c>
+      <c r="G84" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="str">
+        <v>MADELENA 6</v>
+      </c>
+      <c r="B85" t="str">
+        <v>830115545</v>
+      </c>
+      <c r="C85">
+        <v>3</v>
+      </c>
+      <c r="D85">
+        <v>1</v>
+      </c>
+      <c r="E85">
+        <v>12</v>
+      </c>
+      <c r="F85" t="str">
+        <v>OK</v>
+      </c>
+      <c r="G85" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="str">
+        <v>MANZANA 52</v>
+      </c>
+      <c r="B86" t="str">
+        <v>901335235</v>
+      </c>
+      <c r="C86">
+        <v>70</v>
+      </c>
+      <c r="D86">
+        <v>164</v>
+      </c>
+      <c r="E86">
+        <v>986</v>
+      </c>
+      <c r="F86" t="str">
+        <v>OK</v>
+      </c>
+      <c r="G86" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="str">
+        <v>MARBELLA RESERVADO</v>
+      </c>
+      <c r="B87" t="str">
+        <v>900812356</v>
+      </c>
+      <c r="C87">
+        <v>32</v>
+      </c>
+      <c r="D87">
+        <v>11</v>
+      </c>
+      <c r="E87">
+        <v>306</v>
+      </c>
+      <c r="F87" t="str">
+        <v>OK</v>
+      </c>
+      <c r="G87" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="str">
+        <v>MARGARITA 5</v>
+      </c>
+      <c r="B88" t="str">
+        <v>900042174</v>
+      </c>
+      <c r="C88">
+        <v>25</v>
+      </c>
+      <c r="D88">
+        <v>25</v>
+      </c>
+      <c r="E88">
+        <v>312</v>
+      </c>
+      <c r="F88" t="str">
+        <v>OK</v>
+      </c>
+      <c r="G88" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="str">
+        <v>MILAN</v>
+      </c>
+      <c r="B89" t="str">
+        <v>901332807</v>
+      </c>
+      <c r="C89">
+        <v>59</v>
+      </c>
+      <c r="D89">
+        <v>0</v>
+      </c>
+      <c r="E89">
+        <v>436</v>
+      </c>
+      <c r="F89" t="str">
+        <v>OK</v>
+      </c>
+      <c r="G89" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="str">
+        <v>MILANO</v>
+      </c>
+      <c r="B90" t="str">
+        <v>901031409</v>
+      </c>
+      <c r="C90">
+        <v>29</v>
+      </c>
+      <c r="D90">
+        <v>7</v>
+      </c>
+      <c r="E90">
+        <v>219</v>
+      </c>
+      <c r="F90" t="str">
+        <v>OK</v>
+      </c>
+      <c r="G90" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="str">
+        <v>MIRADOR DE FONTIBON</v>
+      </c>
+      <c r="B91" t="str">
+        <v>901400806</v>
+      </c>
+      <c r="C91">
+        <v>0</v>
+      </c>
+      <c r="D91">
+        <v>0</v>
+      </c>
+      <c r="E91">
+        <v>0</v>
+      </c>
+      <c r="F91" t="str">
+        <v>NO ESTA EN NOMOS</v>
+      </c>
+      <c r="G91" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="str">
+        <v>MIRADOR DE SAN CRISTOBAL</v>
+      </c>
+      <c r="B92" t="str">
+        <v>830036121</v>
+      </c>
+      <c r="C92">
+        <v>7</v>
+      </c>
+      <c r="D92">
+        <v>7</v>
+      </c>
+      <c r="E92">
+        <v>99</v>
+      </c>
+      <c r="F92" t="str">
+        <v>OK</v>
+      </c>
+      <c r="G92" t="str">
+        <v/>
+      </c>
+    </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G11"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G92"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/migracion/reporte_migracion.xlsx
+++ b/migracion/reporte_migracion.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G179"/>
+  <dimension ref="A1:G180"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -508,7 +508,7 @@
         <v>153</v>
       </c>
       <c r="E5">
-        <v>967</v>
+        <v>1002</v>
       </c>
       <c r="F5" t="str">
         <v>OK</v>
@@ -686,13 +686,13 @@
         <v>900654612</v>
       </c>
       <c r="C13">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="D13">
         <v>67</v>
       </c>
       <c r="E13">
-        <v>874</v>
+        <v>914</v>
       </c>
       <c r="F13" t="str">
         <v>OK</v>
@@ -758,10 +758,10 @@
         <v>11</v>
       </c>
       <c r="D16">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E16">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F16" t="str">
         <v>OK</v>
@@ -968,7 +968,7 @@
         <v>162</v>
       </c>
       <c r="E25">
-        <v>2832</v>
+        <v>2919</v>
       </c>
       <c r="F25" t="str">
         <v>OK</v>
@@ -1336,7 +1336,7 @@
         <v>21</v>
       </c>
       <c r="E41">
-        <v>227</v>
+        <v>239</v>
       </c>
       <c r="F41" t="str">
         <v>OK</v>
@@ -1451,7 +1451,7 @@
         <v>14</v>
       </c>
       <c r="E46">
-        <v>479</v>
+        <v>498</v>
       </c>
       <c r="F46" t="str">
         <v>OK</v>
@@ -1497,7 +1497,7 @@
         <v>4</v>
       </c>
       <c r="E48">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="F48" t="str">
         <v>OK</v>
@@ -1658,7 +1658,7 @@
         <v>99</v>
       </c>
       <c r="E55">
-        <v>389</v>
+        <v>404</v>
       </c>
       <c r="F55" t="str">
         <v>OK</v>
@@ -1727,7 +1727,7 @@
         <v>44</v>
       </c>
       <c r="E58">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="F58" t="str">
         <v>OK</v>
@@ -1934,7 +1934,7 @@
         <v>31</v>
       </c>
       <c r="E67">
-        <v>551</v>
+        <v>565</v>
       </c>
       <c r="F67" t="str">
         <v>OK</v>
@@ -2463,7 +2463,7 @@
         <v>0</v>
       </c>
       <c r="E90">
-        <v>436</v>
+        <v>479</v>
       </c>
       <c r="F90" t="str">
         <v>OK</v>
@@ -2670,7 +2670,7 @@
         <v>16</v>
       </c>
       <c r="E99">
-        <v>279</v>
+        <v>294</v>
       </c>
       <c r="F99" t="str">
         <v>OK</v>
@@ -2762,7 +2762,7 @@
         <v>177</v>
       </c>
       <c r="E103">
-        <v>2403</v>
+        <v>2433</v>
       </c>
       <c r="F103" t="str">
         <v>OK</v>
@@ -2785,7 +2785,7 @@
         <v>44</v>
       </c>
       <c r="E104">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="F104" t="str">
         <v>OK</v>
@@ -3107,7 +3107,7 @@
         <v>160</v>
       </c>
       <c r="E118">
-        <v>1140</v>
+        <v>1175</v>
       </c>
       <c r="F118" t="str">
         <v>OK</v>
@@ -3130,7 +3130,7 @@
         <v>17</v>
       </c>
       <c r="E119">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="F119" t="str">
         <v>OK</v>
@@ -3196,10 +3196,10 @@
         <v>34</v>
       </c>
       <c r="D122">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E122">
-        <v>502</v>
+        <v>531</v>
       </c>
       <c r="F122" t="str">
         <v>OK</v>
@@ -3219,10 +3219,10 @@
         <v>59</v>
       </c>
       <c r="D123">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E123">
-        <v>1431</v>
+        <v>1456</v>
       </c>
       <c r="F123" t="str">
         <v>OK</v>
@@ -3360,7 +3360,7 @@
         <v>10</v>
       </c>
       <c r="E129">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="F129" t="str">
         <v>OK</v>
@@ -3383,7 +3383,7 @@
         <v>21</v>
       </c>
       <c r="E130">
-        <v>545</v>
+        <v>557</v>
       </c>
       <c r="F130" t="str">
         <v>OK</v>
@@ -3866,7 +3866,7 @@
         <v>91</v>
       </c>
       <c r="E151">
-        <v>763</v>
+        <v>775</v>
       </c>
       <c r="F151" t="str">
         <v>OK</v>
@@ -4303,7 +4303,7 @@
         <v>70</v>
       </c>
       <c r="E170">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="F170" t="str">
         <v>OK</v>
@@ -4326,7 +4326,7 @@
         <v>20</v>
       </c>
       <c r="E171">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="F171" t="str">
         <v>OK</v>
@@ -4519,9 +4519,32 @@
         <v/>
       </c>
     </row>
+    <row r="180">
+      <c r="A180" t="str">
+        <v>CONJUNTO MAZUREN SECTOR II AGRUPACION 3 - P.H.</v>
+      </c>
+      <c r="B180" t="str">
+        <v>830135053</v>
+      </c>
+      <c r="C180">
+        <v>0</v>
+      </c>
+      <c r="D180">
+        <v>0</v>
+      </c>
+      <c r="E180">
+        <v>0</v>
+      </c>
+      <c r="F180" t="str">
+        <v>NO ESTA EN NOMOS</v>
+      </c>
+      <c r="G180" t="str">
+        <v/>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G179"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G180"/>
   </ignoredErrors>
 </worksheet>
 </file>